--- a/data/КОМП_ЮТЕРНІ СИСТЕМИ ТА МЕРЕЖІ_ВІДОМІСТЬ ДОРУЧЕНЬ_19_20.xlsx
+++ b/data/КОМП_ЮТЕРНІ СИСТЕМИ ТА МЕРЕЖІ_ВІДОМІСТЬ ДОРУЧЕНЬ_19_20.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="-45" windowWidth="18135" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="КСМ_Денне" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">КСМ_Зао!$A$1:$I$30</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -489,8 +489,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +601,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -638,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -725,18 +732,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,7 +744,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,21 +1035,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
@@ -1053,7 +1063,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
@@ -1062,34 +1072,34 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="37" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1100,20 +1110,20 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="25.5">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1124,20 +1134,20 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1148,33 +1158,33 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1185,7 +1195,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1">
+    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>3</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>1</v>
       </c>
@@ -1243,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" ht="30">
+    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>1</v>
       </c>
@@ -1272,7 +1282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" ht="46.5" customHeight="1">
+    <row r="16" spans="1:13" s="14" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>2</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="17" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>3</v>
       </c>
@@ -1330,7 +1340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>4</v>
       </c>
@@ -1359,7 +1369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>5</v>
       </c>
@@ -1388,7 +1398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>6</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>7</v>
       </c>
@@ -1446,7 +1456,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>8</v>
       </c>
@@ -1475,7 +1485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>9</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="24" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>10</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>11</v>
       </c>
@@ -1562,7 +1572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>12</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>13</v>
       </c>
@@ -1620,7 +1630,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>14</v>
       </c>
@@ -1649,7 +1659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="29" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>15</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="30" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>16</v>
       </c>
@@ -1707,7 +1717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="31" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>17</v>
       </c>
@@ -1736,7 +1746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="32" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>18</v>
       </c>
@@ -1765,7 +1775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="33" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>19</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="14" customFormat="1" ht="62.25" customHeight="1">
+    <row r="34" spans="1:9" s="14" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>20</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="35" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>21</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="36" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>22</v>
       </c>
@@ -1881,7 +1891,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>23</v>
       </c>
@@ -1910,7 +1920,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="14" customFormat="1" ht="60" customHeight="1">
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>24</v>
       </c>
@@ -1939,7 +1949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>25</v>
       </c>
@@ -1968,7 +1978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="40" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>26</v>
       </c>
@@ -1997,7 +2007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="14" customFormat="1" ht="45" customHeight="1">
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>27</v>
       </c>
@@ -2026,7 +2036,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>28</v>
       </c>
@@ -2055,7 +2065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="43" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>29</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="44" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>30</v>
       </c>
@@ -2113,7 +2123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="45" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>31</v>
       </c>
@@ -2142,7 +2152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="46" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>32</v>
       </c>
@@ -2171,7 +2181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="47" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>33</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="48" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>34</v>
       </c>
@@ -2229,7 +2239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="14" customFormat="1" ht="31.5" customHeight="1">
+    <row r="49" spans="1:9" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>35</v>
       </c>
@@ -2258,7 +2268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="50" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>36</v>
       </c>
@@ -2287,7 +2297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="51" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>37</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="52" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>38</v>
       </c>
@@ -2345,7 +2355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="53" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>39</v>
       </c>
@@ -2374,7 +2384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="54" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>40</v>
       </c>
@@ -2403,7 +2413,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>41</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="56" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>42</v>
       </c>
@@ -2461,7 +2471,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="57" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>43</v>
       </c>
@@ -2490,7 +2500,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="14" customFormat="1" ht="60">
+    <row r="58" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>44</v>
       </c>
@@ -2519,7 +2529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="59" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>45</v>
       </c>
@@ -2548,7 +2558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="60" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>46</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="61" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>47</v>
       </c>
@@ -2606,7 +2616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="62" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>48</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="63" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>49</v>
       </c>
@@ -2664,7 +2674,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="14" customFormat="1" ht="75">
+    <row r="64" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>50</v>
       </c>
@@ -2693,7 +2703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="65" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>51</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="66" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>52</v>
       </c>
@@ -2751,7 +2761,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="67" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
         <v>53</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="14" customFormat="1" ht="75">
+    <row r="68" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>54</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="69" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
         <v>55</v>
       </c>
@@ -2838,7 +2848,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="70" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>56</v>
       </c>
@@ -2867,7 +2877,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="71" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>57</v>
       </c>
@@ -2896,7 +2906,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="14" customFormat="1" ht="75">
+    <row r="72" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>58</v>
       </c>
@@ -2925,7 +2935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="73" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>59</v>
       </c>
@@ -2954,7 +2964,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="74" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>60</v>
       </c>
@@ -2983,7 +2993,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="75" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>61</v>
       </c>
@@ -3012,7 +3022,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="14" customFormat="1">
+    <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>62</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="77" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>63</v>
       </c>
@@ -3070,7 +3080,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="14" customFormat="1">
+    <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>64</v>
       </c>
@@ -3099,7 +3109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="14" customFormat="1">
+    <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27">
         <v>65</v>
       </c>
@@ -3128,7 +3138,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="80" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="27">
         <v>66</v>
       </c>
@@ -3157,7 +3167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="81" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="27">
         <v>67</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="82" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="27">
         <v>68</v>
       </c>
@@ -3215,7 +3225,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="83" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
         <v>69</v>
       </c>
@@ -3244,7 +3254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="84" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="27">
         <v>70</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="85" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>71</v>
       </c>
@@ -3302,7 +3312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="86" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
         <v>72</v>
       </c>
@@ -3331,7 +3341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="87" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="27">
         <v>73</v>
       </c>
@@ -3360,7 +3370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="88" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>74</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="89" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>75</v>
       </c>
@@ -3418,7 +3428,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="14" customFormat="1">
+    <row r="90" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>76</v>
       </c>
@@ -3447,7 +3457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="91" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>77</v>
       </c>
@@ -3476,7 +3486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="14" customFormat="1">
+    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27">
         <v>78</v>
       </c>
@@ -3505,7 +3515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="14" customFormat="1">
+    <row r="93" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27">
         <v>79</v>
       </c>
@@ -3534,60 +3544,60 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="19" customFormat="1" ht="18.75">
+    <row r="96" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
         <v>103</v>
       </c>
       <c r="F96" s="28"/>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I96" s="33"/>
-    </row>
-    <row r="97" spans="1:9" ht="12.95" customHeight="1">
-      <c r="H97" s="34" t="s">
+      <c r="I96" s="38"/>
+    </row>
+    <row r="97" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I97" s="34"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="35" t="s">
+      <c r="I97" s="39"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="35" t="s">
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A100:I100"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="A100:I100"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3595,14 +3605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="20" customWidth="1"/>
@@ -3616,7 +3626,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
@@ -3625,34 +3635,34 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="37" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="2"/>
@@ -3663,20 +3673,20 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="25.5">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="17"/>
@@ -3687,20 +3697,20 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="17"/>
@@ -3711,33 +3721,33 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="23"/>
       <c r="C12" s="18"/>
@@ -3748,7 +3758,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1">
+    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +3787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>1</v>
       </c>
@@ -3806,7 +3816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" ht="45">
+    <row r="15" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>1</v>
       </c>
@@ -3833,7 +3843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" ht="30">
+    <row r="16" spans="1:13" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>2</v>
       </c>
@@ -3860,7 +3870,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="17" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>3</v>
       </c>
@@ -3887,7 +3897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>4</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>5</v>
       </c>
@@ -3941,7 +3951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>6</v>
       </c>
@@ -3968,11 +3978,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="45">
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>7</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -3995,11 +4005,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>8</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -4022,11 +4032,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" ht="30">
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>9</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -4049,48 +4059,48 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" ht="18.75">
+    <row r="25" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.95" customHeight="1">
-      <c r="H26" s="34" t="s">
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="35" t="s">
+      <c r="I26" s="39"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="35" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/КОМП_ЮТЕРНІ СИСТЕМИ ТА МЕРЕЖІ_ВІДОМІСТЬ ДОРУЧЕНЬ_19_20.xlsx
+++ b/data/КОМП_ЮТЕРНІ СИСТЕМИ ТА МЕРЕЖІ_ВІДОМІСТЬ ДОРУЧЕНЬ_19_20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="КСМ_Денне" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">КСМ_Денне!$A$1:$I$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">КСМ_Зао!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">КСМ_Зао!$A$1:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="114">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Архітектура комп'ютерів</t>
   </si>
   <si>
-    <t xml:space="preserve">Комп'ютерна схемотехніка </t>
-  </si>
-  <si>
     <t>Сгадов Сергій Олександрович</t>
   </si>
   <si>
@@ -232,24 +229,15 @@
     <t>Рибін Вадим Олегович; Зелік Олена Валеріївна</t>
   </si>
   <si>
-    <t xml:space="preserve">Алгоритми та методи обчислень </t>
-  </si>
-  <si>
     <t>КНТ-518;КНТ-528;КНТ-519сп</t>
   </si>
   <si>
     <t>Кудерметов Равіль Камілович</t>
   </si>
   <si>
-    <t>Польська Ольга Вододимирівна;Щербак Наталя Володимирівна</t>
-  </si>
-  <si>
     <t>Сучасні методи програмування</t>
   </si>
   <si>
-    <t>Польська Ольга Вододимирівна;Куликовська Наталя Анатоліївна</t>
-  </si>
-  <si>
     <t>Організація баз даних</t>
   </si>
   <si>
@@ -259,9 +247,6 @@
     <t>Паромова Тетяна Олександрівна;Щербак Наталя Володимирівна</t>
   </si>
   <si>
-    <t>Сучасні інтернет технолгії</t>
-  </si>
-  <si>
     <t>КНТ-517;КНТ-527;КНТ-518сп</t>
   </si>
   <si>
@@ -289,27 +274,9 @@
     <t>Кудерметов Равіль Камілович;Луценко Наталя Володимирівна</t>
   </si>
   <si>
-    <t>Луценко Наталя Володимирівна;Польська Ольга Вододимирівна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надійність комп'ютерних систем </t>
-  </si>
-  <si>
-    <t>Зеленьва Ірина Яківна</t>
-  </si>
-  <si>
-    <t>Зеленьва Ірина Яківна;Сгадов Сергій Олександрович</t>
-  </si>
-  <si>
-    <t>Зеленьва Ірина Яківна;Сирота Анатолій Васильович</t>
-  </si>
-  <si>
     <t>Сирота Анатолій Васильович</t>
   </si>
   <si>
-    <t xml:space="preserve">Системна інтеграція і оптимізація засобів обчислювальної техніки </t>
-  </si>
-  <si>
     <t>Комп'ютерна графіка</t>
   </si>
   <si>
@@ -401,9 +368,6 @@
   </si>
   <si>
     <t>Проскурін Микола Петрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архітерктура і технології Web-служб </t>
   </si>
   <si>
     <t>Точилін Сергій Дмитрович</t>
@@ -484,6 +448,152 @@
   </si>
   <si>
     <t xml:space="preserve">Завідувач кафедри________________   </t>
+  </si>
+  <si>
+    <t>Комп'ютерна схемотехніка</t>
+  </si>
+  <si>
+    <t>Алгоритми та методи обчислень</t>
+  </si>
+  <si>
+    <t>Надійність комп'ютерних систем</t>
+  </si>
+  <si>
+    <t>Сучасні інтернет-технології</t>
+  </si>
+  <si>
+    <t>Архітектура і технології Web-служб</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Польська Ольга </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Володимирівна</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>;Щербак Наталя Володимирівна</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Польська Ольга </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Володимирівна</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>;Куликовська Наталя Анатоліївна</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Луценко Наталя Володимирівна;Польська Ольга </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Володимирівна</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Зеленьова</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Ірина Яківна</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Зеленьова</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Ірина Яківна;Сгадов Сергій Олександрович</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Зеленьова</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Ірина Яківна;Сирота Анатолій Васильович</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -609,12 +719,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -645,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -732,6 +848,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,22 +899,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1045,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1200,8 @@
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1073,31 +1214,31 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
@@ -1111,17 +1252,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
@@ -1135,17 +1276,17 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -1159,30 +1300,30 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
@@ -1223,6 +1364,9 @@
       <c r="I13" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="J13" s="37" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
@@ -1252,6 +1396,9 @@
       <c r="I14" s="7">
         <v>9</v>
       </c>
+      <c r="J14" s="38">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
@@ -1273,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>19</v>
@@ -1281,6 +1428,7 @@
       <c r="I15" s="15">
         <v>50</v>
       </c>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:13" s="14" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
@@ -1302,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>21</v>
@@ -1310,8 +1458,9 @@
       <c r="I16" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>3</v>
       </c>
@@ -1331,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>23</v>
@@ -1339,8 +1488,9 @@
       <c r="I17" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>4</v>
       </c>
@@ -1360,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>24</v>
@@ -1368,8 +1518,9 @@
       <c r="I18" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>5</v>
       </c>
@@ -1389,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>26</v>
@@ -1397,8 +1548,9 @@
       <c r="I19" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>6</v>
       </c>
@@ -1418,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>28</v>
@@ -1426,8 +1578,9 @@
       <c r="I20" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>7</v>
       </c>
@@ -1447,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>28</v>
@@ -1455,13 +1608,14 @@
       <c r="I21" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>8</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>31</v>
+      <c r="B22" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>25</v>
@@ -1476,21 +1630,22 @@
         <v>1</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>9</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>31</v>
+      <c r="B23" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>27</v>
@@ -1505,21 +1660,22 @@
         <v>1</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>10</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>31</v>
+      <c r="B24" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>29</v>
@@ -1534,24 +1690,25 @@
         <v>1</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>11</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>20</v>
@@ -1563,24 +1720,25 @@
         <v>2</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" s="15">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>12</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>18</v>
@@ -1592,21 +1750,22 @@
         <v>2</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I26" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>13</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>27</v>
@@ -1621,21 +1780,22 @@
         <v>2</v>
       </c>
       <c r="G27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="I27" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>14</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>29</v>
@@ -1650,24 +1810,25 @@
         <v>2</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="I28" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>15</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>20</v>
@@ -1679,24 +1840,25 @@
         <v>2</v>
       </c>
       <c r="G29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="I29" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>16</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>18</v>
@@ -1708,21 +1870,22 @@
         <v>2</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I30" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>17</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>27</v>
@@ -1737,21 +1900,22 @@
         <v>2</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I31" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>18</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>29</v>
@@ -1766,24 +1930,25 @@
         <v>2</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I32" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>19</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>20</v>
@@ -1795,24 +1960,25 @@
         <v>2</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I33" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="14" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>20</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>18</v>
@@ -1824,21 +1990,22 @@
         <v>2</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I34" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>21</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>27</v>
@@ -1853,21 +2020,22 @@
         <v>2</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I35" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J35" s="39"/>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>22</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>29</v>
@@ -1882,24 +2050,25 @@
         <v>2</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I36" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>23</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>20</v>
@@ -1911,24 +2080,25 @@
         <v>2</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I37" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>24</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>47</v>
+      <c r="B38" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>18</v>
@@ -1940,24 +2110,25 @@
         <v>2</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I38" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>25</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>47</v>
+      <c r="B39" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>20</v>
@@ -1969,24 +2140,25 @@
         <v>2</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I39" s="15">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J39" s="39"/>
+    </row>
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>26</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>47</v>
+      <c r="B40" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>20</v>
@@ -1998,24 +2170,25 @@
         <v>2</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I40" s="15">
         <v>146</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="39"/>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>27</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>47</v>
+      <c r="B41" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>20</v>
@@ -2027,24 +2200,25 @@
         <v>2</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I41" s="15">
         <v>146</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J41" s="39"/>
+    </row>
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>28</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>18</v>
@@ -2056,24 +2230,25 @@
         <v>2</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I42" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J42" s="39"/>
+    </row>
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>29</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>20</v>
@@ -2085,24 +2260,25 @@
         <v>2</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I43" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J43" s="39"/>
+    </row>
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>30</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>20</v>
@@ -2114,24 +2290,25 @@
         <v>2</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="I44" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J44" s="39"/>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>31</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>20</v>
@@ -2143,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>23</v>
@@ -2151,16 +2328,17 @@
       <c r="I45" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J45" s="39"/>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>32</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>18</v>
@@ -2172,24 +2350,25 @@
         <v>1</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="I46" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J46" s="39"/>
+    </row>
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>33</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>20</v>
@@ -2201,24 +2380,25 @@
         <v>2</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I47" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J47" s="39"/>
+    </row>
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>34</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>20</v>
@@ -2230,24 +2410,25 @@
         <v>2</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="I48" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="39"/>
+    </row>
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>35</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>20</v>
@@ -2259,24 +2440,25 @@
         <v>2</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I49" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J49" s="39"/>
+    </row>
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>36</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>18</v>
@@ -2288,24 +2470,25 @@
         <v>2</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I50" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J50" s="39"/>
+    </row>
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>37</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>20</v>
@@ -2317,24 +2500,25 @@
         <v>2</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I51" s="15">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J51" s="39"/>
+    </row>
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>38</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>20</v>
@@ -2346,24 +2530,25 @@
         <v>2</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I52" s="15">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J52" s="39"/>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>39</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>20</v>
@@ -2375,24 +2560,25 @@
         <v>2</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I53" s="15">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J53" s="39"/>
+    </row>
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>40</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>18</v>
@@ -2404,24 +2590,25 @@
         <v>1</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I54" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J54" s="39"/>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>41</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>20</v>
@@ -2433,24 +2620,25 @@
         <v>2</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I55" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J55" s="39"/>
+    </row>
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>42</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>20</v>
@@ -2462,24 +2650,25 @@
         <v>2</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I56" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J56" s="39"/>
+    </row>
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>43</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>20</v>
@@ -2491,24 +2680,25 @@
         <v>2</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I57" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J57" s="39"/>
+    </row>
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>44</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>18</v>
@@ -2520,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>19</v>
@@ -2528,16 +2718,17 @@
       <c r="I58" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J58" s="39"/>
+    </row>
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>45</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>20</v>
@@ -2549,24 +2740,25 @@
         <v>1</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I59" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J59" s="39"/>
+    </row>
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>46</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>20</v>
@@ -2578,24 +2770,25 @@
         <v>1</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I60" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J60" s="39"/>
+    </row>
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>47</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>20</v>
@@ -2607,24 +2800,25 @@
         <v>1</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I61" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J61" s="39"/>
+    </row>
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>48</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>68</v>
+      <c r="B62" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>18</v>
@@ -2636,24 +2830,25 @@
         <v>2</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I62" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J62" s="39"/>
+    </row>
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>49</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>68</v>
+      <c r="B63" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>20</v>
@@ -2665,24 +2860,25 @@
         <v>2</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I63" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="J63" s="39"/>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>50</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>18</v>
@@ -2694,24 +2890,25 @@
         <v>2</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I64" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J64" s="39"/>
+    </row>
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>51</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>20</v>
@@ -2723,24 +2920,25 @@
         <v>3</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I65" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J65" s="39"/>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>52</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>20</v>
@@ -2752,24 +2950,25 @@
         <v>3</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I66" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J66" s="39"/>
+    </row>
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
         <v>53</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>20</v>
@@ -2781,24 +2980,25 @@
         <v>3</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I67" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="J67" s="39"/>
+    </row>
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>54</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>18</v>
@@ -2810,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H68" s="16" t="s">
         <v>26</v>
@@ -2818,16 +3018,17 @@
       <c r="I68" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J68" s="39"/>
+    </row>
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
         <v>55</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>20</v>
@@ -2839,24 +3040,25 @@
         <v>3</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I69" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J69" s="39"/>
+    </row>
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>56</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>20</v>
@@ -2868,24 +3070,25 @@
         <v>3</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I70" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J70" s="39"/>
+    </row>
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>57</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>20</v>
@@ -2897,24 +3100,25 @@
         <v>3</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I71" s="15">
         <v>353</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="J71" s="39"/>
+    </row>
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>58</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>18</v>
@@ -2926,24 +3130,25 @@
         <v>2</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I72" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J72" s="39"/>
+    </row>
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>59</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>20</v>
@@ -2955,24 +3160,25 @@
         <v>3</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I73" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J73" s="39"/>
+    </row>
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>60</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>20</v>
@@ -2984,24 +3190,25 @@
         <v>3</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I74" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J74" s="39"/>
+    </row>
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>61</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>20</v>
@@ -3013,24 +3220,25 @@
         <v>3</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I75" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="39"/>
+    </row>
+    <row r="76" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>62</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>18</v>
@@ -3042,24 +3250,25 @@
         <v>2</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I76" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J76" s="40"/>
+    </row>
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>63</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>20</v>
@@ -3071,24 +3280,25 @@
         <v>2</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I77" s="12">
         <v>353</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="40"/>
+    </row>
+    <row r="78" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>64</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>18</v>
@@ -3100,24 +3310,25 @@
         <v>2</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I78" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="40"/>
+    </row>
+    <row r="79" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27">
         <v>65</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>20</v>
@@ -3129,24 +3340,25 @@
         <v>2</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I79" s="12">
         <v>353</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J79" s="40"/>
+    </row>
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="27">
         <v>66</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>18</v>
@@ -3158,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>26</v>
@@ -3166,16 +3378,17 @@
       <c r="I80" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J80" s="40"/>
+    </row>
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="27">
         <v>67</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>20</v>
@@ -3187,24 +3400,25 @@
         <v>2</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I81" s="12">
         <v>353</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J81" s="40"/>
+    </row>
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="27">
         <v>68</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>20</v>
@@ -3216,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>26</v>
@@ -3224,16 +3438,17 @@
       <c r="I82" s="12">
         <v>353</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J82" s="40"/>
+    </row>
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
         <v>69</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>18</v>
@@ -3245,24 +3460,25 @@
         <v>1</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I83" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J83" s="40"/>
+    </row>
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="27">
         <v>70</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>20</v>
@@ -3274,24 +3490,25 @@
         <v>2</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I84" s="12">
         <v>51</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J84" s="40"/>
+    </row>
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>71</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>18</v>
@@ -3303,24 +3520,25 @@
         <v>1</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I85" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J85" s="40"/>
+    </row>
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
         <v>72</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>20</v>
@@ -3332,24 +3550,25 @@
         <v>2</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I86" s="12">
         <v>51</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J86" s="40"/>
+    </row>
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="27">
         <v>73</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>95</v>
+      <c r="B87" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>18</v>
@@ -3361,24 +3580,25 @@
         <v>1</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I87" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J87" s="40"/>
+    </row>
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>74</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>95</v>
+      <c r="B88" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>20</v>
@@ -3390,24 +3610,25 @@
         <v>2</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I88" s="12">
         <v>353</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J88" s="40"/>
+    </row>
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>75</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>95</v>
+      <c r="B89" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>20</v>
@@ -3419,24 +3640,25 @@
         <v>2</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I89" s="12">
         <v>353</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="40"/>
+    </row>
+    <row r="90" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>76</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>18</v>
@@ -3448,24 +3670,25 @@
         <v>2</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I90" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J90" s="40"/>
+    </row>
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>77</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>20</v>
@@ -3477,24 +3700,25 @@
         <v>2</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="J91" s="40"/>
+    </row>
+    <row r="92" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27">
         <v>78</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>18</v>
@@ -3506,24 +3730,25 @@
         <v>2</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I92" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="40"/>
+    </row>
+    <row r="93" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27">
         <v>79</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>20</v>
@@ -3535,69 +3760,70 @@
         <v>2</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="J93" s="40"/>
+    </row>
+    <row r="96" spans="1:10" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F96" s="28"/>
-      <c r="H96" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="I96" s="38"/>
+      <c r="H96" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I96" s="42"/>
     </row>
     <row r="97" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H97" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I97" s="39"/>
+      <c r="H97" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I97" s="43"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
+      <c r="A99" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
+      <c r="A100" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="H96:I96"/>
     <mergeCell ref="H97:I97"/>
     <mergeCell ref="A99:I99"/>
     <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3606,10 +3832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3621,48 +3847,50 @@
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="20" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="23.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="2"/>
@@ -3672,21 +3900,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="17"/>
@@ -3695,22 +3925,24 @@
       <c r="F7" s="22"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="17"/>
@@ -3719,35 +3951,38 @@
       <c r="F9" s="22"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="23"/>
       <c r="C12" s="18"/>
@@ -3756,9 +3991,10 @@
       <c r="F12" s="23"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="36"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>3</v>
       </c>
@@ -3786,8 +4022,11 @@
       <c r="I13" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>1</v>
       </c>
@@ -3815,16 +4054,19 @@
       <c r="I14" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J14" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>1</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>18</v>
@@ -3834,24 +4076,25 @@
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I15" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:14" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>2</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>20</v>
@@ -3861,24 +4104,25 @@
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I16" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>3</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>20</v>
@@ -3888,24 +4132,25 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I17" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>4</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>18</v>
@@ -3915,7 +4160,7 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>26</v>
@@ -3923,16 +4168,17 @@
       <c r="I18" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>5</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>20</v>
@@ -3942,7 +4188,7 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>26</v>
@@ -3950,16 +4196,17 @@
       <c r="I19" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>6</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>20</v>
@@ -3969,7 +4216,7 @@
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>26</v>
@@ -3977,16 +4224,17 @@
       <c r="I20" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>7</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>68</v>
+      <c r="B21" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>18</v>
@@ -3996,24 +4244,25 @@
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I21" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>8</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>68</v>
+      <c r="B22" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>20</v>
@@ -4023,24 +4272,25 @@
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I22" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>9</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>68</v>
+      <c r="B23" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>20</v>
@@ -4050,70 +4300,75 @@
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I23" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J23" s="39"/>
+    </row>
+    <row r="25" spans="1:10" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="H25" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="39"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
+      <c r="H25" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="B11:J11"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0" top="0" bottom="0" header="0.24" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>

--- a/data/КОМП_ЮТЕРНІ СИСТЕМИ ТА МЕРЕЖІ_ВІДОМІСТЬ ДОРУЧЕНЬ_19_20.xlsx
+++ b/data/КОМП_ЮТЕРНІ СИСТЕМИ ТА МЕРЕЖІ_ВІДОМІСТЬ ДОРУЧЕНЬ_19_20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="КСМ_Денне" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="115">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -594,6 +594,9 @@
       </rPr>
       <t xml:space="preserve"> Ірина Яківна;Сирота Анатолій Васильович</t>
     </r>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -875,9 +878,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -886,21 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,7 +1178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1185,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,31 +1217,31 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
@@ -1252,17 +1255,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
@@ -1276,17 +1279,17 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -1300,30 +1303,30 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
@@ -1362,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>11</v>
@@ -2810,7 +2813,7 @@
       </c>
       <c r="J61" s="39"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>48</v>
       </c>
@@ -3775,55 +3778,55 @@
         <v>91</v>
       </c>
       <c r="F96" s="28"/>
-      <c r="H96" s="42" t="s">
+      <c r="H96" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="I96" s="42"/>
+      <c r="I96" s="47"/>
     </row>
     <row r="97" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H97" s="43" t="s">
+      <c r="H97" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="I97" s="43"/>
+      <c r="I97" s="48"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="44" t="s">
+      <c r="A99" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A100:I100"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="A100:I100"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3834,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,33 +3865,33 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
@@ -3903,18 +3906,18 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
@@ -3929,18 +3932,18 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -3955,32 +3958,32 @@
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
@@ -4020,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>11</v>
@@ -4316,46 +4319,46 @@
       </c>
       <c r="B25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
